--- a/excel/vendorCategories.xlsx
+++ b/excel/vendorCategories.xlsx
@@ -14,72 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Agriculture &amp; Livestock Supplies</t>
-  </si>
-  <si>
-    <t>Amusements</t>
-  </si>
-  <si>
-    <t>Automobiles &amp; Trucks</t>
-  </si>
-  <si>
-    <t>Buildings, Hardware, Tools</t>
-  </si>
-  <si>
-    <t>Clothing, Accessories, Jewelry</t>
-  </si>
-  <si>
-    <t>Health &amp; Beauty, Nutrition</t>
-  </si>
-  <si>
-    <t>Home Improvement &amp; Services, Lawn &amp; Garden</t>
-  </si>
-  <si>
-    <t>Home Products &amp; Decor, Arts &amp; Crafts, Signs</t>
-  </si>
-  <si>
-    <t>Imports &amp; Ethnic</t>
-  </si>
-  <si>
-    <t>Schools, Government, Public Service</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Media</t>
   </si>
   <si>
-    <t>Musical Instruments, Technology</t>
-  </si>
-  <si>
-    <t>Souvenirs, Toys</t>
-  </si>
-  <si>
-    <t>Pet Supplies</t>
-  </si>
-  <si>
     <t>Political</t>
   </si>
   <si>
-    <t>Recreation &amp; Sports</t>
-  </si>
-  <si>
-    <t>Religious Organizations</t>
-  </si>
-  <si>
-    <t>Eco Experience</t>
-  </si>
-  <si>
-    <t>On-a-Stick</t>
-  </si>
-  <si>
-    <t>New Food/Flavor</t>
+    <t>Beer &amp; Wine</t>
   </si>
   <si>
     <t>New Vendor</t>
   </si>
   <si>
-    <t>Beer &amp; Wine</t>
+    <t>Location Change</t>
+  </si>
+  <si>
+    <t>On-A-Stick</t>
   </si>
   <si>
     <t>Open Early</t>
@@ -88,19 +40,22 @@
     <t>Blue Ribbon Bargain Book</t>
   </si>
   <si>
-    <t>Kids Day (Valid Sept. 1 only)</t>
-  </si>
-  <si>
-    <t>Seniors Day (Valid Sept. 2 only)</t>
-  </si>
-  <si>
-    <t>Opening Day (Valid Aug. 26 only)</t>
-  </si>
-  <si>
-    <t>Military Appreciation Day (Valid Aug. 31 only)</t>
-  </si>
-  <si>
-    <t>Monday Deals (Valid Aug. 30 &amp; Sept. 6 only)</t>
+    <t>Opening Day, Aug. 24</t>
+  </si>
+  <si>
+    <t>Seniors Day, Aug. 28 &amp; 31</t>
+  </si>
+  <si>
+    <t>Military Appreciation Day, Aug. 29</t>
+  </si>
+  <si>
+    <t>Kids Day, Aug. 30 &amp; Sept. 4</t>
+  </si>
+  <si>
+    <t>Giveaways (Free)</t>
+  </si>
+  <si>
+    <t>Prize Drawings</t>
   </si>
   <si>
     <t>id_cat</t>
@@ -160,8 +115,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D30" totalsRowShown="0">
-  <autoFilter ref="A1:D30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0">
+  <autoFilter ref="A1:D15"/>
   <tableColumns count="4">
     <tableColumn id="1" name="id_cat"/>
     <tableColumn id="2" name="category"/>
@@ -457,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,21 +420,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -493,7 +448,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -507,21 +462,21 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -530,54 +485,54 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -586,12 +541,12 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -600,12 +555,12 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -614,12 +569,12 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -628,12 +583,12 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -642,12 +597,12 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -656,12 +611,12 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -670,216 +625,6 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>64</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>66</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>68</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
         <v>1</v>
       </c>
     </row>
